--- a/testData/CreateEntity/CreateEntity_OOFS_FailureUpdate_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_OOFS_FailureUpdate_Test.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="150">
   <si>
     <t>WorflowName</t>
   </si>
@@ -447,6 +447,33 @@
   </si>
   <si>
     <t>2024-03-25 03:57:38 PM</t>
+  </si>
+  <si>
+    <t>2024-03-25 04:21:44 PM</t>
+  </si>
+  <si>
+    <t>CT: Mon, Mar 25, 2024 at 4:24 PM</t>
+  </si>
+  <si>
+    <t>2024-03-25 04:27:55 PM</t>
+  </si>
+  <si>
+    <t>CT: Mon, Mar 25, 2024 at 4:30 PM</t>
+  </si>
+  <si>
+    <t>2024-03-25 05:16:15 PM</t>
+  </si>
+  <si>
+    <t>CT: Mon, Mar 25, 2024 at 5:19 PM</t>
+  </si>
+  <si>
+    <t>2024-03-25 05:22:26 PM</t>
+  </si>
+  <si>
+    <t>CT: Mon, Mar 25, 2024 at 5:25 PM</t>
+  </si>
+  <si>
+    <t>CT: Mon, Mar 25, 2024 at 5:28 PM</t>
   </si>
 </sst>
 </file>
@@ -1088,7 +1115,7 @@
         <v>99</v>
       </c>
       <c r="Q2" t="s" s="2">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>104</v>
@@ -1465,14 +1492,14 @@
       <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>137</v>
+      <c r="Q2" t="s" s="2">
+        <v>147</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>104</v>
@@ -1510,7 +1537,7 @@
       <c r="AC2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AD2" t="s" s="2">
         <v>135</v>
       </c>
       <c r="AE2" s="3" t="s">
@@ -2676,7 +2703,7 @@
         <v>129</v>
       </c>
       <c r="BB2" t="s" s="0">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.35">

--- a/testData/CreateEntity/CreateEntity_OOFS_FailureUpdate_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_OOFS_FailureUpdate_Test.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="174">
   <si>
     <t>WorflowName</t>
   </si>
@@ -474,6 +474,78 @@
   </si>
   <si>
     <t>CT: Mon, Mar 25, 2024 at 5:28 PM</t>
+  </si>
+  <si>
+    <t>2024-03-25 07:26:53 PM</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2024-04-04</t>
+  </si>
+  <si>
+    <t>02:35:55 AM</t>
+  </si>
+  <si>
+    <t>2024-04-04 11:42:03 AM</t>
+  </si>
+  <si>
+    <t>CT: Thu, Apr 04, 2024 at 11:44 AM</t>
+  </si>
+  <si>
+    <t>2024-04-04 11:48:11 AM</t>
+  </si>
+  <si>
+    <t>CT: Thu, Apr 04, 2024 at 11:50 AM</t>
+  </si>
+  <si>
+    <t>CT: Thu, Apr 04, 2024 at 11:54 AM</t>
+  </si>
+  <si>
+    <t>2024-04-04 12:11:54 PM</t>
+  </si>
+  <si>
+    <t>CT: Thu, Apr 04, 2024 at 12:14 PM</t>
+  </si>
+  <si>
+    <t>2024-04-04 12:17:55 PM</t>
+  </si>
+  <si>
+    <t>CT: Thu, Apr 04, 2024 at 12:20 PM</t>
+  </si>
+  <si>
+    <t>CT: Thu, Apr 04, 2024 at 12:24 PM</t>
+  </si>
+  <si>
+    <t>2024-04-04 12:46:34 PM</t>
+  </si>
+  <si>
+    <t>CT: Thu, Apr 04, 2024 at 12:49 PM</t>
+  </si>
+  <si>
+    <t>2024-04-04 12:52:37 PM</t>
+  </si>
+  <si>
+    <t>CT: Thu, Apr 04, 2024 at 12:55 PM</t>
+  </si>
+  <si>
+    <t>CT: Thu, Apr 04, 2024 at 12:58 PM</t>
+  </si>
+  <si>
+    <t>2024-04-04 01:23:15 PM</t>
+  </si>
+  <si>
+    <t>CT: Thu, Apr 04, 2024 at 1:25 PM</t>
+  </si>
+  <si>
+    <t>2024-04-04 01:29:14 PM</t>
+  </si>
+  <si>
+    <t>CT: Thu, Apr 04, 2024 at 1:32 PM</t>
+  </si>
+  <si>
+    <t>CT: Thu, Apr 04, 2024 at 1:35 PM</t>
   </si>
 </sst>
 </file>
@@ -1109,13 +1181,13 @@
         <v>25</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="P2" t="s" s="2">
         <v>99</v>
       </c>
       <c r="Q2" t="s" s="2">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>104</v>
@@ -1154,7 +1226,7 @@
         <v>88</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
@@ -1175,7 +1247,7 @@
         <v>126</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="AR2" s="2" t="s">
         <v>130</v>
@@ -1493,13 +1565,13 @@
         <v>25</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="P2" t="s" s="2">
         <v>99</v>
       </c>
       <c r="Q2" t="s" s="2">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>104</v>
@@ -1538,7 +1610,7 @@
         <v>88</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
@@ -2703,7 +2775,7 @@
         <v>129</v>
       </c>
       <c r="BB2" t="s" s="0">
-        <v>149</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.35">

--- a/testData/CreateEntity/CreateEntity_OOFS_FailureUpdate_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_OOFS_FailureUpdate_Test.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="147">
   <si>
     <t>WorflowName</t>
   </si>
@@ -425,127 +425,46 @@
     <t>CETargetDupPrev</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>Create Entity - CETargetDupPrev</t>
   </si>
   <si>
-    <t>2024-03-25</t>
-  </si>
-  <si>
-    <t>2024-03-25 03:08:56 PM</t>
-  </si>
-  <si>
-    <t>2024-03-25 03:15:39 PM</t>
-  </si>
-  <si>
-    <t>CT: Mon, Mar 25, 2024 at 3:18 PM</t>
-  </si>
-  <si>
     <t>three</t>
   </si>
   <si>
-    <t>2024-03-25 03:57:38 PM</t>
-  </si>
-  <si>
-    <t>2024-03-25 04:21:44 PM</t>
-  </si>
-  <si>
-    <t>CT: Mon, Mar 25, 2024 at 4:24 PM</t>
-  </si>
-  <si>
-    <t>2024-03-25 04:27:55 PM</t>
-  </si>
-  <si>
-    <t>CT: Mon, Mar 25, 2024 at 4:30 PM</t>
-  </si>
-  <si>
-    <t>2024-03-25 05:16:15 PM</t>
-  </si>
-  <si>
-    <t>CT: Mon, Mar 25, 2024 at 5:19 PM</t>
-  </si>
-  <si>
-    <t>2024-03-25 05:22:26 PM</t>
-  </si>
-  <si>
-    <t>CT: Mon, Mar 25, 2024 at 5:25 PM</t>
-  </si>
-  <si>
-    <t>CT: Mon, Mar 25, 2024 at 5:28 PM</t>
-  </si>
-  <si>
-    <t>2024-03-25 07:26:53 PM</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
     <t>2024-04-04</t>
   </si>
   <si>
-    <t>02:35:55 AM</t>
-  </si>
-  <si>
-    <t>2024-04-04 11:42:03 AM</t>
-  </si>
-  <si>
-    <t>CT: Thu, Apr 04, 2024 at 11:44 AM</t>
-  </si>
-  <si>
-    <t>2024-04-04 11:48:11 AM</t>
-  </si>
-  <si>
-    <t>CT: Thu, Apr 04, 2024 at 11:50 AM</t>
-  </si>
-  <si>
-    <t>CT: Thu, Apr 04, 2024 at 11:54 AM</t>
-  </si>
-  <si>
-    <t>2024-04-04 12:11:54 PM</t>
-  </si>
-  <si>
-    <t>CT: Thu, Apr 04, 2024 at 12:14 PM</t>
-  </si>
-  <si>
-    <t>2024-04-04 12:17:55 PM</t>
-  </si>
-  <si>
-    <t>CT: Thu, Apr 04, 2024 at 12:20 PM</t>
-  </si>
-  <si>
-    <t>CT: Thu, Apr 04, 2024 at 12:24 PM</t>
-  </si>
-  <si>
-    <t>2024-04-04 12:46:34 PM</t>
-  </si>
-  <si>
-    <t>CT: Thu, Apr 04, 2024 at 12:49 PM</t>
-  </si>
-  <si>
-    <t>2024-04-04 12:52:37 PM</t>
-  </si>
-  <si>
-    <t>CT: Thu, Apr 04, 2024 at 12:55 PM</t>
-  </si>
-  <si>
-    <t>CT: Thu, Apr 04, 2024 at 12:58 PM</t>
-  </si>
-  <si>
     <t>2024-04-04 01:23:15 PM</t>
   </si>
   <si>
-    <t>CT: Thu, Apr 04, 2024 at 1:25 PM</t>
-  </si>
-  <si>
     <t>2024-04-04 01:29:14 PM</t>
   </si>
   <si>
-    <t>CT: Thu, Apr 04, 2024 at 1:32 PM</t>
-  </si>
-  <si>
     <t>CT: Thu, Apr 04, 2024 at 1:35 PM</t>
+  </si>
+  <si>
+    <t>SummaryAddEnquiry@gmail.com</t>
+  </si>
+  <si>
+    <t>2024-04-05</t>
+  </si>
+  <si>
+    <t>2024-04-05 07:23:22 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Apr 05, 2024 at 7:26 PM</t>
+  </si>
+  <si>
+    <t>2024-04-05 07:29:30 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Apr 05, 2024 at 7:32 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Apr 05, 2024 at 7:35 PM</t>
   </si>
 </sst>
 </file>
@@ -916,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView topLeftCell="AP1" workbookViewId="0">
+      <selection activeCell="AR2" sqref="AR2:AT2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -964,8 +883,8 @@
     <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="18.0"/>
     <col min="47" max="47" customWidth="true" style="2" width="18.0"/>
     <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="10.26953125"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.90625"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="22.453125"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="17.36328125"/>
     <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="14.08984375"/>
     <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
     <col min="53" max="53" bestFit="true" customWidth="true" style="2" width="22.7265625"/>
@@ -1142,7 +1061,7 @@
         <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>110</v>
@@ -1181,13 +1100,13 @@
         <v>25</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="P2" t="s" s="2">
         <v>99</v>
       </c>
       <c r="Q2" t="s" s="2">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>104</v>
@@ -1226,7 +1145,7 @@
         <v>88</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
@@ -1241,13 +1160,13 @@
         <v>60</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ2" s="2" t="s">
         <v>126</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="AR2" s="2" t="s">
         <v>130</v>
@@ -1300,8 +1219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1332,7 +1251,7 @@
     <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
     <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
     <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.453125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="29.26953125"/>
     <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="19.81640625"/>
     <col min="29" max="29" customWidth="true" style="2" width="38.26953125"/>
     <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.08984375"/>
@@ -1526,7 +1445,7 @@
         <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>110</v>
@@ -1565,13 +1484,13 @@
         <v>25</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="P2" t="s" s="2">
         <v>99</v>
       </c>
       <c r="Q2" t="s" s="2">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>104</v>
@@ -1601,7 +1520,7 @@
         <v>69</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>71</v>
@@ -1610,7 +1529,7 @@
         <v>88</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
@@ -1625,7 +1544,7 @@
         <v>60</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="AJ2" s="2" t="s">
         <v>126</v>
@@ -1671,7 +1590,7 @@
   <hyperlinks>
     <hyperlink ref="X2" r:id="rId1"/>
     <hyperlink ref="H2" r:id="rId2"/>
-    <hyperlink ref="AA2" r:id="rId3" display="testEnquiry@test.com"/>
+    <hyperlink ref="AA2" r:id="rId3"/>
     <hyperlink ref="AW2" r:id="rId4"/>
     <hyperlink ref="BA2" r:id="rId5"/>
   </hyperlinks>
@@ -1683,15 +1602,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView topLeftCell="AO1" workbookViewId="0">
+      <selection activeCell="AR2" sqref="AR2:AT2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.26953125"/>
     <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.36328125"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="32.90625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
     <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
     <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.453125"/>
     <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7265625"/>
@@ -1906,7 +1826,7 @@
         <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>110</v>
@@ -2016,8 +1936,8 @@
       <c r="AR2" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="AS2" s="2" t="s">
-        <v>130</v>
+      <c r="AS2" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="AT2" s="2" t="s">
         <v>50</v>
@@ -2061,8 +1981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AR2" sqref="AR2:AS2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2286,7 +2206,7 @@
         <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>110</v>
@@ -2440,8 +2360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="AZ5" sqref="AZ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2458,8 +2378,11 @@
     <col min="16" max="16" bestFit="true" customWidth="true" width="11.08984375"/>
     <col min="17" max="17" bestFit="true" customWidth="true" width="15.1796875"/>
     <col min="18" max="18" bestFit="true" customWidth="true" width="13.6328125"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0"/>
     <col min="21" max="21" bestFit="true" customWidth="true" width="8.453125"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="11.81640625"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="13.1796875"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="24.08984375"/>
     <col min="29" max="29" customWidth="true" width="30.90625"/>
     <col min="30" max="30" bestFit="true" customWidth="true" width="10.08984375"/>
     <col min="32" max="32" bestFit="true" customWidth="true" width="10.81640625"/>
@@ -2640,7 +2563,7 @@
         <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>110</v>
@@ -2664,7 +2587,7 @@
         <v>2</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>112</v>
@@ -2775,7 +2698,7 @@
         <v>129</v>
       </c>
       <c r="BB2" t="s" s="0">
-        <v>173</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.35">

--- a/testData/CreateEntity/CreateEntity_OOFS_FailureUpdate_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_OOFS_FailureUpdate_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="140">
   <si>
     <t>WorflowName</t>
   </si>
@@ -248,9 +248,6 @@
   </si>
   <si>
     <t>AddNewSales@gmail.com</t>
-  </si>
-  <si>
-    <t>Summary Add Text</t>
   </si>
   <si>
     <t>DuplicateLead@gmail.com</t>
@@ -308,9 +305,6 @@
     <t>Sales Team Management module helps sales team to plan, prioritize daily activities such as calls, followups &amp; Visits. The module consists of Activity Screen, Due Date, Time, Email/SMS Reminders, Activity Completion Notes.</t>
   </si>
   <si>
-    <t>Edit Record</t>
-  </si>
-  <si>
     <t>EditNewEmail@rsoft.in</t>
   </si>
   <si>
@@ -434,37 +428,22 @@
     <t>2</t>
   </si>
   <si>
-    <t>2024-04-04</t>
-  </si>
-  <si>
-    <t>2024-04-04 01:23:15 PM</t>
-  </si>
-  <si>
-    <t>2024-04-04 01:29:14 PM</t>
-  </si>
-  <si>
-    <t>CT: Thu, Apr 04, 2024 at 1:35 PM</t>
-  </si>
-  <si>
     <t>SummaryAddEnquiry@gmail.com</t>
   </si>
   <si>
     <t>2024-04-05</t>
   </si>
   <si>
-    <t>2024-04-05 07:23:22 PM</t>
-  </si>
-  <si>
-    <t>CT: Fri, Apr 05, 2024 at 7:26 PM</t>
-  </si>
-  <si>
-    <t>2024-04-05 07:29:30 PM</t>
-  </si>
-  <si>
-    <t>CT: Fri, Apr 05, 2024 at 7:32 PM</t>
-  </si>
-  <si>
-    <t>CT: Fri, Apr 05, 2024 at 7:35 PM</t>
+    <t>2024-04-12</t>
+  </si>
+  <si>
+    <t>2024-04-12 03:18:28 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Apr 12, 2024 at 3:21 PM</t>
+  </si>
+  <si>
+    <t>2024-04-12 03:25:11 PM</t>
   </si>
 </sst>
 </file>
@@ -835,69 +814,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView topLeftCell="AP1" workbookViewId="0">
-      <selection activeCell="AR2" sqref="AR2:AT2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="18.0"/>
-    <col min="2" max="2" customWidth="true" style="2" width="22.26953125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="32.453125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="26.6328125"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="14.0"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="16.453125"/>
-    <col min="9" max="9" style="2" width="8.7265625"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="12.54296875"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="9.6328125"/>
-    <col min="13" max="14" style="2" width="8.7265625"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="10.08984375"/>
-    <col min="16" max="16" style="2" width="8.7265625"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="15.1796875"/>
-    <col min="18" max="19" bestFit="true" customWidth="true" style="2" width="13.6328125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="10.453125"/>
-    <col min="21" max="21" style="2" width="8.7265625"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="8.26953125"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="22.0"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="12.7265625"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="23.453125"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="11.7265625"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="13.08984375"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="20.453125"/>
-    <col min="33" max="33" customWidth="true" style="2" width="20.453125"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="18.54296875"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="29.36328125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="14.0"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="2" width="11.90625"/>
-    <col min="38" max="40" bestFit="true" customWidth="true" style="2" width="17.81640625"/>
-    <col min="41" max="43" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.36328125"/>
-    <col min="45" max="45" customWidth="true" style="2" width="18.36328125"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="18.0"/>
-    <col min="47" max="47" customWidth="true" style="2" width="18.0"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="22.453125"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="17.36328125"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="14.08984375"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" style="2" width="22.7265625"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" style="2" width="30.26953125"/>
-    <col min="55" max="16384" style="2" width="8.7265625"/>
+    <col min="1" max="1" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="2"/>
+    <col min="10" max="10" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.7109375" style="2"/>
+    <col min="15" max="15" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" style="2"/>
+    <col min="17" max="17" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.7109375" style="2"/>
+    <col min="22" max="22" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.42578125" style="2" customWidth="1"/>
+    <col min="34" max="34" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="43" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18.42578125" style="2" customWidth="1"/>
+    <col min="46" max="46" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="18" style="2" customWidth="1"/>
+    <col min="48" max="48" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="30.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="55" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1023,10 +1002,10 @@
         <v>47</v>
       </c>
       <c r="AR1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS1" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="AT1" s="2" t="s">
         <v>49</v>
@@ -1053,18 +1032,18 @@
         <v>56</v>
       </c>
       <c r="BB1" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:54" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>43</v>
@@ -1076,7 +1055,7 @@
         <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>68</v>
@@ -1099,17 +1078,17 @@
       <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="P2" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="Q2" t="s" s="2">
-        <v>142</v>
+      <c r="O2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>44</v>
@@ -1142,16 +1121,16 @@
         <v>71</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD2" t="s" s="2">
-        <v>141</v>
+        <v>87</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1160,19 +1139,19 @@
         <v>60</v>
       </c>
       <c r="AI2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK2" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="AJ2" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>135</v>
-      </c>
       <c r="AR2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS2" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="AS2" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="AT2" s="2" t="s">
         <v>50</v>
@@ -1181,7 +1160,7 @@
         <v>58</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>72</v>
@@ -1193,13 +1172,13 @@
         <v>42</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>74</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1219,69 +1198,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView topLeftCell="AN1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.26953125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.36328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="29.26953125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="26.36328125"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="16.6328125"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.453125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="23.90625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.6328125"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.453125"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.81640625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.08984375"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.08984375"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.453125"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.6328125"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.453125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.6328125"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.26953125"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.453125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="29.26953125"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="19.81640625"/>
-    <col min="29" max="29" customWidth="true" style="2" width="38.26953125"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.08984375"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.453125"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.81640625"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.08984375"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.6328125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.90625"/>
-    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
-    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.36328125"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.81640625"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="18.90625"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.90625"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.08984375"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.90625"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7265625"/>
-    <col min="53" max="16384" style="2" width="8.7265625"/>
+    <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="29.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="38.28515625" style="2" customWidth="1"/>
+    <col min="30" max="30" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1407,10 +1386,10 @@
         <v>47</v>
       </c>
       <c r="AR1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS1" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="AT1" s="2" t="s">
         <v>49</v>
@@ -1437,33 +1416,33 @@
         <v>56</v>
       </c>
       <c r="BB1" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:54" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I2" s="2">
         <v>3</v>
@@ -1483,17 +1462,17 @@
       <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="P2" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="Q2" t="s" s="2">
-        <v>144</v>
+      <c r="O2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>44</v>
@@ -1505,7 +1484,7 @@
         <v>65</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W2" s="7">
         <v>10000</v>
@@ -1520,22 +1499,22 @@
         <v>69</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>71</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD2" t="s" s="2">
-        <v>141</v>
+        <v>87</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1544,19 +1523,19 @@
         <v>60</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AR2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS2" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="AS2" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="AT2" s="2" t="s">
         <v>50</v>
@@ -1565,10 +1544,10 @@
         <v>58</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AW2" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AX2" s="2" t="s">
         <v>73</v>
@@ -1577,13 +1556,13 @@
         <v>42</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="BA2" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1602,67 +1581,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB2"/>
   <sheetViews>
-    <sheetView topLeftCell="AO1" workbookViewId="0">
-      <selection activeCell="AR2" sqref="AR2:AT2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.26953125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.36328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="32.90625"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.453125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.6328125"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.453125"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.81640625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.08984375"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.08984375"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.453125"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.6328125"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.453125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.6328125"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.26953125"/>
-    <col min="23" max="24" bestFit="true" customWidth="true" style="2" width="22.0"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.453125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="19.81640625"/>
-    <col min="29" max="29" customWidth="true" style="2" width="35.26953125"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.08984375"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.453125"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.81640625"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="18.54296875"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="29.36328125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="15.1796875"/>
-    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
-    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.36328125"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.81640625"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="24.54296875"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.90625"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.08984375"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.90625"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7265625"/>
-    <col min="53" max="16384" style="2" width="8.7265625"/>
+    <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="35.28515625" style="2" customWidth="1"/>
+    <col min="30" max="30" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="24.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1788,10 +1767,10 @@
         <v>47</v>
       </c>
       <c r="AR1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS1" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="AT1" s="2" t="s">
         <v>49</v>
@@ -1818,33 +1797,33 @@
         <v>56</v>
       </c>
       <c r="BB1" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="2">
         <v>3</v>
@@ -1865,13 +1844,13 @@
         <v>25</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>66</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>67</v>
@@ -1886,7 +1865,7 @@
         <v>65</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W2" s="7">
         <v>10000</v>
@@ -1901,22 +1880,22 @@
         <v>69</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>71</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1925,19 +1904,19 @@
         <v>60</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AR2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AS2" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="AS2" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="AT2" s="2" t="s">
         <v>50</v>
@@ -1946,10 +1925,10 @@
         <v>58</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AW2" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AX2" s="2" t="s">
         <v>73</v>
@@ -1958,10 +1937,10 @@
         <v>42</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="BA2" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1982,67 +1961,67 @@
   <dimension ref="A1:BB2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.26953125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.36328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="32.453125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.54296875"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.453125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.1796875"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.6328125"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.453125"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.81640625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.08984375"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.08984375"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.453125"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.6328125"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.453125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.6328125"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.81640625"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7265625"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.1796875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.453125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.1796875"/>
-    <col min="28" max="28" customWidth="true" style="2" width="50.6328125"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="12.08984375"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.08984375"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.453125"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.81640625"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.08984375"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.6328125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.90625"/>
-    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.6328125"/>
-    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.1796875"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.36328125"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.81640625"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="12.54296875"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.90625"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.08984375"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.81640625"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.90625"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7265625"/>
-    <col min="53" max="16384" style="2" width="8.7265625"/>
+    <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="50.5703125" style="2" customWidth="1"/>
+    <col min="29" max="29" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -2168,10 +2147,10 @@
         <v>47</v>
       </c>
       <c r="AR1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS1" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="AT1" s="2" t="s">
         <v>49</v>
@@ -2198,33 +2177,33 @@
         <v>56</v>
       </c>
       <c r="BB1" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I2" s="2">
         <v>3</v>
@@ -2245,13 +2224,13 @@
         <v>25</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>66</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>67</v>
@@ -2266,7 +2245,7 @@
         <v>65</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W2" s="7">
         <v>10000</v>
@@ -2281,22 +2260,22 @@
         <v>69</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>71</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -2305,19 +2284,19 @@
         <v>60</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AT2" s="2" t="s">
         <v>50</v>
@@ -2326,10 +2305,10 @@
         <v>58</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AW2" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AX2" s="2" t="s">
         <v>73</v>
@@ -2338,10 +2317,10 @@
         <v>42</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="BA2" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2360,46 +2339,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AZ5" sqref="AZ5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.6328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="32.453125"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="17.81640625"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="25.90625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.6328125"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="11.08984375"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.08984375"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.08984375"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="15.1796875"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="13.6328125"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="8.453125"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="13.1796875"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="24.08984375"/>
-    <col min="29" max="29" customWidth="true" width="30.90625"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.08984375"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="28.81640625"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="27.08984375"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="27.453125"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="11.26953125"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="30.85546875" customWidth="1"/>
+    <col min="30" max="30" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:54" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -2525,10 +2504,10 @@
         <v>47</v>
       </c>
       <c r="AR1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS1" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="AT1" s="2" t="s">
         <v>49</v>
@@ -2554,25 +2533,25 @@
       <c r="BA1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BB1" t="s" s="0">
-        <v>80</v>
+      <c r="BB1" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:54" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:54" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>41</v>
@@ -2581,19 +2560,19 @@
         <v>1234567890</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I2" s="2">
         <v>2</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>24</v>
@@ -2602,76 +2581,76 @@
         <v>25</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>44</v>
       </c>
       <c r="T2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="V2" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="W2" s="7">
         <v>1000</v>
       </c>
       <c r="X2" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z2" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AC2" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AD2" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE2" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD2" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="AF2" s="2">
         <v>9876543210</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AH2" s="2" t="s">
         <v>60</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AT2" s="2" t="s">
         <v>50</v>
@@ -2683,10 +2662,10 @@
         <v>9876543210</v>
       </c>
       <c r="AW2" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AY2" s="3" t="s">
         <v>42</v>
@@ -2695,13 +2674,13 @@
         <v>9876543210</v>
       </c>
       <c r="BA2" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BB2" t="s" s="0">
-        <v>146</v>
+        <v>127</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q3" s="11"/>
     </row>
   </sheetData>

--- a/testData/CreateEntity/CreateEntity_OOFS_FailureUpdate_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_OOFS_FailureUpdate_Test.xlsx
@@ -15,7 +15,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="146">
   <si>
     <t>WorflowName</t>
   </si>
@@ -444,6 +444,24 @@
   </si>
   <si>
     <t>2024-04-12 03:25:11 PM</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2024-06-03</t>
+  </si>
+  <si>
+    <t>2024-06-03 08:00:00 PM</t>
+  </si>
+  <si>
+    <t>CT: Mon, Jun 03, 2024 at 4:33 PM</t>
+  </si>
+  <si>
+    <t>CT: Mon, Jun 03, 2024 at 4:40 PM</t>
+  </si>
+  <si>
+    <t>CT: Mon, Jun 03, 2024 at 4:43 PM</t>
   </si>
 </sst>
 </file>
@@ -820,55 +838,55 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="2"/>
-    <col min="10" max="10" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="8.7109375" style="2"/>
-    <col min="15" max="15" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" style="2"/>
-    <col min="17" max="17" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.7109375" style="2"/>
-    <col min="22" max="22" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="20.42578125" style="2" customWidth="1"/>
-    <col min="34" max="34" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="40" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="43" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="18.42578125" style="2" customWidth="1"/>
-    <col min="46" max="46" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18" style="2" customWidth="1"/>
-    <col min="48" max="48" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="30.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="55" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="2" max="2" customWidth="true" style="2" width="22.28515625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="32.42578125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="26.5703125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="14.0"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
+    <col min="9" max="9" style="2" width="8.7109375"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="12.5703125"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
+    <col min="13" max="14" style="2" width="8.7109375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="16" max="16" style="2" width="8.7109375"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="15.140625"/>
+    <col min="18" max="19" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
+    <col min="21" max="21" style="2" width="8.7109375"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="8.28515625"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="12.7109375"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="23.140625"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="23.42578125"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="11.7109375"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="33" max="33" customWidth="true" style="2" width="20.42578125"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="18.5703125"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="29.42578125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="14.0"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="38" max="40" bestFit="true" customWidth="true" style="2" width="17.85546875"/>
+    <col min="41" max="43" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="45" max="45" customWidth="true" style="2" width="18.42578125"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="47" max="47" customWidth="true" style="2" width="18.0"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="22.42578125"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="17.42578125"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="14.140625"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="2" width="22.7109375"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" style="2" width="30.28515625"/>
+    <col min="55" max="16384" style="2" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.25">
@@ -1078,14 +1096,14 @@
       <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="O2" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="P2" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>137</v>
+      <c r="Q2" t="s" s="2">
+        <v>142</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>102</v>
@@ -1123,8 +1141,8 @@
       <c r="AC2" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="AD2" s="2" t="s">
-        <v>136</v>
+      <c r="AD2" t="s" s="2">
+        <v>141</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
@@ -1144,8 +1162,8 @@
       <c r="AJ2" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="AK2" s="2" t="s">
-        <v>133</v>
+      <c r="AK2" t="s" s="2">
+        <v>140</v>
       </c>
       <c r="AR2" s="2" t="s">
         <v>128</v>
@@ -1204,55 +1222,55 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="29.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="38.28515625" style="2" customWidth="1"/>
-    <col min="30" max="30" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.28515625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="29.28515625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="26.42578125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="16.5703125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="23.85546875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.42578125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.140625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.5703125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.28515625"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="29.28515625"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="19.85546875"/>
+    <col min="29" max="29" customWidth="true" style="2" width="38.28515625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.85546875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.5703125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.85546875"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="18.85546875"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.140625"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7109375"/>
+    <col min="53" max="16384" style="2" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.25">
@@ -1462,14 +1480,14 @@
       <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="O2" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="P2" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>139</v>
+      <c r="Q2" t="s" s="2">
+        <v>142</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>102</v>
@@ -1507,8 +1525,8 @@
       <c r="AC2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AD2" s="2" t="s">
-        <v>135</v>
+      <c r="AD2" t="s" s="2">
+        <v>141</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
@@ -1587,53 +1605,53 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="35.28515625" style="2" customWidth="1"/>
-    <col min="30" max="30" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="24.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.28515625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="32.85546875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.42578125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.140625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.5703125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.28515625"/>
+    <col min="23" max="24" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.140625"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="19.85546875"/>
+    <col min="29" max="29" customWidth="true" style="2" width="35.28515625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.85546875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="18.5703125"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="29.42578125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="15.140625"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.85546875"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="24.5703125"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.140625"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7109375"/>
+    <col min="53" max="16384" style="2" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.25">
@@ -1966,54 +1984,54 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="50.5703125" style="2" customWidth="1"/>
-    <col min="29" max="29" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.28515625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="32.42578125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.42578125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.140625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.5703125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.140625"/>
+    <col min="28" max="28" customWidth="true" style="2" width="50.5703125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="12.140625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.85546875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.5703125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.85546875"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="12.5703125"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.140625"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7109375"/>
+    <col min="53" max="16384" style="2" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.25">
@@ -2345,32 +2363,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="30.85546875" customWidth="1"/>
-    <col min="30" max="30" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.5703125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="32.42578125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.85546875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.85546875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="25.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="11.140625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.140625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.140625"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="15.140625"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="13.5703125"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="8.42578125"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="11.85546875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="13.140625"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="24.140625"/>
+    <col min="29" max="29" customWidth="true" width="30.85546875"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="10.140625"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="10.85546875"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="28.85546875"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="27.140625"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="10.85546875"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="10.85546875"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="27.42578125"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="11.28515625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2533,7 +2551,7 @@
       <c r="BA1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BB1" t="s" s="0">
         <v>79</v>
       </c>
     </row>
@@ -2676,8 +2694,8 @@
       <c r="BA2" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="BB2" t="s">
-        <v>138</v>
+      <c r="BB2" t="s" s="0">
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.25">

--- a/testData/CreateEntity/CreateEntity_OOFS_FailureUpdate_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_OOFS_FailureUpdate_Test.xlsx
@@ -15,7 +15,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="137">
   <si>
     <t>WorflowName</t>
   </si>
@@ -341,9 +341,6 @@
     <t>03:30:20 PM</t>
   </si>
   <si>
-    <t>2024-03-23</t>
-  </si>
-  <si>
     <t>CT: Sat, Mar 23, 2024 at 1:27 PM</t>
   </si>
   <si>
@@ -362,9 +359,6 @@
     <t>West Bengal</t>
   </si>
   <si>
-    <t>2024-03-23 03:35:46 PM</t>
-  </si>
-  <si>
     <t>Mr.</t>
   </si>
   <si>
@@ -425,43 +419,22 @@
     <t>three</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>SummaryAddEnquiry@gmail.com</t>
   </si>
   <si>
-    <t>2024-04-05</t>
-  </si>
-  <si>
-    <t>2024-04-12</t>
-  </si>
-  <si>
-    <t>2024-04-12 03:18:28 PM</t>
-  </si>
-  <si>
-    <t>CT: Fri, Apr 12, 2024 at 3:21 PM</t>
-  </si>
-  <si>
-    <t>2024-04-12 03:25:11 PM</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>2024-06-03</t>
-  </si>
-  <si>
-    <t>2024-06-03 08:00:00 PM</t>
-  </si>
-  <si>
-    <t>CT: Mon, Jun 03, 2024 at 4:33 PM</t>
-  </si>
-  <si>
-    <t>CT: Mon, Jun 03, 2024 at 4:40 PM</t>
-  </si>
-  <si>
-    <t>CT: Mon, Jun 03, 2024 at 4:43 PM</t>
+    <t>2024-07-12</t>
+  </si>
+  <si>
+    <t>2024-07-15 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>CT: Fri, Jul 12, 2024 at 5:11 PM</t>
+  </si>
+  <si>
+    <t>2024-07-12  03.35.46 PM</t>
   </si>
 </sst>
 </file>
@@ -545,10 +518,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -838,55 +811,55 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="18.0"/>
-    <col min="2" max="2" customWidth="true" style="2" width="22.28515625"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="32.42578125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="11.140625"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="26.5703125"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="14.0"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
-    <col min="9" max="9" style="2" width="8.7109375"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="12.5703125"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
-    <col min="13" max="14" style="2" width="8.7109375"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="10.140625"/>
-    <col min="16" max="16" style="2" width="8.7109375"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="15.140625"/>
-    <col min="18" max="19" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
-    <col min="21" max="21" style="2" width="8.7109375"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="8.28515625"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="22.0"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="13.140625"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="12.7109375"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="23.140625"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="23.42578125"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="11.7109375"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="13.140625"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
-    <col min="33" max="33" customWidth="true" style="2" width="20.42578125"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="18.5703125"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="29.42578125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="14.0"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
-    <col min="38" max="40" bestFit="true" customWidth="true" style="2" width="17.85546875"/>
-    <col min="41" max="43" bestFit="true" customWidth="true" style="2" width="10.140625"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
-    <col min="45" max="45" customWidth="true" style="2" width="18.42578125"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="18.0"/>
-    <col min="47" max="47" customWidth="true" style="2" width="18.0"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="22.42578125"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="17.42578125"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="14.140625"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" style="2" width="22.7109375"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" style="2" width="30.28515625"/>
-    <col min="55" max="16384" style="2" width="8.7109375"/>
+    <col min="1" max="1" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="2"/>
+    <col min="10" max="10" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.7109375" style="2"/>
+    <col min="15" max="15" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" style="2"/>
+    <col min="17" max="17" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.7109375" style="2"/>
+    <col min="22" max="22" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.42578125" style="2" customWidth="1"/>
+    <col min="34" max="34" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="43" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18.42578125" style="2" customWidth="1"/>
+    <col min="46" max="46" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="18" style="2" customWidth="1"/>
+    <col min="48" max="48" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="30.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="55" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.25">
@@ -1055,13 +1028,13 @@
     </row>
     <row r="2" spans="1:54" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>43</v>
@@ -1096,14 +1069,14 @@
       <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="P2" t="s" s="2">
+      <c r="O2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Q2" t="s" s="2">
-        <v>142</v>
+      <c r="Q2" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>102</v>
@@ -1141,8 +1114,8 @@
       <c r="AC2" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="AD2" t="s" s="2">
-        <v>141</v>
+      <c r="AD2" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
@@ -1157,19 +1130,19 @@
         <v>60</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>140</v>
+        <v>122</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="AR2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AS2" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="AS2" s="5" t="s">
-        <v>130</v>
       </c>
       <c r="AT2" s="2" t="s">
         <v>50</v>
@@ -1196,7 +1169,7 @@
         <v>74</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1222,55 +1195,55 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.28515625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="29.28515625"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="26.42578125"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="16.5703125"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="23.85546875"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.140625"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.42578125"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.85546875"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.140625"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.140625"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.5703125"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.28515625"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.140625"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="29.28515625"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="19.85546875"/>
-    <col min="29" max="29" customWidth="true" style="2" width="38.28515625"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.140625"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.85546875"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.140625"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.5703125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
-    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
-    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.140625"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.85546875"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="18.85546875"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.140625"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7109375"/>
-    <col min="53" max="16384" style="2" width="8.7109375"/>
+    <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="29.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="38.28515625" style="2" customWidth="1"/>
+    <col min="30" max="30" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.25">
@@ -1439,13 +1412,13 @@
     </row>
     <row r="2" spans="1:54" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>43</v>
@@ -1480,14 +1453,14 @@
       <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="P2" t="s" s="2">
+      <c r="O2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Q2" t="s" s="2">
-        <v>142</v>
+      <c r="Q2" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>102</v>
@@ -1517,7 +1490,7 @@
         <v>69</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>71</v>
@@ -1525,8 +1498,8 @@
       <c r="AC2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AD2" t="s" s="2">
-        <v>141</v>
+      <c r="AD2" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
@@ -1541,19 +1514,19 @@
         <v>60</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AL2" s="2" t="s">
         <v>77</v>
       </c>
       <c r="AR2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AS2" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="AS2" s="5" t="s">
-        <v>130</v>
       </c>
       <c r="AT2" s="2" t="s">
         <v>50</v>
@@ -1580,7 +1553,7 @@
         <v>89</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1605,53 +1578,53 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.28515625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="32.85546875"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="11.140625"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7109375"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.140625"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.42578125"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.85546875"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.140625"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.140625"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.5703125"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.28515625"/>
-    <col min="23" max="24" bestFit="true" customWidth="true" style="2" width="22.0"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.140625"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.140625"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="19.85546875"/>
-    <col min="29" max="29" customWidth="true" style="2" width="35.28515625"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.140625"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.85546875"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="18.5703125"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="29.42578125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="15.140625"/>
-    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
-    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.140625"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.85546875"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="24.5703125"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.140625"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7109375"/>
-    <col min="53" max="16384" style="2" width="8.7109375"/>
+    <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="35.28515625" style="2" customWidth="1"/>
+    <col min="30" max="30" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="24.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.25">
@@ -1820,13 +1793,13 @@
     </row>
     <row r="2" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>43</v>
@@ -1925,16 +1898,16 @@
         <v>103</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AL2" s="2" t="s">
         <v>77</v>
       </c>
       <c r="AR2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AS2" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="AS2" s="5" t="s">
-        <v>130</v>
       </c>
       <c r="AT2" s="2" t="s">
         <v>50</v>
@@ -1984,54 +1957,54 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.28515625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="32.42578125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="11.140625"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7109375"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.140625"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.42578125"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.85546875"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.140625"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.140625"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.5703125"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="10.140625"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.140625"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.140625"/>
-    <col min="28" max="28" customWidth="true" style="2" width="50.5703125"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="12.140625"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.140625"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.85546875"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.140625"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.5703125"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
-    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
-    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.140625"/>
-    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
-    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
-    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.85546875"/>
-    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
-    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="12.5703125"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
-    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.140625"/>
-    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
-    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7109375"/>
-    <col min="53" max="16384" style="2" width="8.7109375"/>
+    <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="50.5703125" style="2" customWidth="1"/>
+    <col min="29" max="29" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="42" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.25">
@@ -2200,13 +2173,13 @@
     </row>
     <row r="2" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>43</v>
@@ -2305,16 +2278,16 @@
         <v>103</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AL2" s="2" t="s">
         <v>77</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AT2" s="2" t="s">
         <v>50</v>
@@ -2357,38 +2330,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AZ5" sqref="AZ5"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.5703125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="32.42578125"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="17.85546875"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.85546875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="25.85546875"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5703125"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="11.140625"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.140625"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.140625"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="15.140625"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="13.5703125"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="8.42578125"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="11.85546875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="13.140625"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="24.140625"/>
-    <col min="29" max="29" customWidth="true" width="30.85546875"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.140625"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="10.85546875"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="28.85546875"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="27.140625"/>
-    <col min="48" max="48" bestFit="true" customWidth="true" width="10.85546875"/>
-    <col min="52" max="52" bestFit="true" customWidth="true" width="10.85546875"/>
-    <col min="53" max="53" bestFit="true" customWidth="true" width="27.42578125"/>
-    <col min="54" max="54" bestFit="true" customWidth="true" width="11.28515625"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="30.85546875" customWidth="1"/>
+    <col min="30" max="30" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2551,25 +2524,25 @@
       <c r="BA1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BB1" t="s" s="0">
+      <c r="BB1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:54" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>41</v>
@@ -2578,19 +2551,19 @@
         <v>1234567890</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I2" s="2">
         <v>2</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>24</v>
@@ -2599,13 +2572,13 @@
         <v>25</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="P2" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="Q2" s="10" t="s">
-        <v>112</v>
+      <c r="Q2" s="11" t="s">
+        <v>136</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>102</v>
@@ -2614,46 +2587,46 @@
         <v>44</v>
       </c>
       <c r="T2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="V2" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="W2" s="7">
         <v>1000</v>
       </c>
       <c r="X2" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z2" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AC2" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AD2" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE2" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD2" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="AF2" s="2">
         <v>9876543210</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AH2" s="2" t="s">
         <v>60</v>
@@ -2662,13 +2635,13 @@
         <v>103</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AT2" s="2" t="s">
         <v>50</v>
@@ -2680,10 +2653,10 @@
         <v>9876543210</v>
       </c>
       <c r="AW2" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AY2" s="3" t="s">
         <v>42</v>
@@ -2692,14 +2665,14 @@
         <v>9876543210</v>
       </c>
       <c r="BA2" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BB2" t="s" s="0">
-        <v>145</v>
+        <v>125</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q3" s="11"/>
+      <c r="Q3" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/testData/CreateEntity/CreateEntity_OOFS_FailureUpdate_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_OOFS_FailureUpdate_Test.xlsx
@@ -15,7 +15,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="142">
   <si>
     <t>WorflowName</t>
   </si>
@@ -435,6 +435,21 @@
   </si>
   <si>
     <t>2024-07-12  03.35.46 PM</t>
+  </si>
+  <si>
+    <t>06-01-2025</t>
+  </si>
+  <si>
+    <t>09-01-2025 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>CT: Mon, Jan 06, 2025 at 7:21 PM</t>
+  </si>
+  <si>
+    <t>CT: Mon, Jan 06, 2025 at 7:30 PM</t>
+  </si>
+  <si>
+    <t>CT: Mon, Jan 06, 2025 at 7:34 PM</t>
   </si>
 </sst>
 </file>
@@ -811,55 +826,55 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="2"/>
-    <col min="10" max="10" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="8.7109375" style="2"/>
-    <col min="15" max="15" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" style="2"/>
-    <col min="17" max="17" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.7109375" style="2"/>
-    <col min="22" max="22" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="20.42578125" style="2" customWidth="1"/>
-    <col min="34" max="34" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="40" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="43" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="18.42578125" style="2" customWidth="1"/>
-    <col min="46" max="46" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18" style="2" customWidth="1"/>
-    <col min="48" max="48" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="30.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="55" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="2" max="2" customWidth="true" style="2" width="22.28515625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="32.42578125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="26.5703125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="14.0"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
+    <col min="9" max="9" style="2" width="8.7109375"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="12.5703125"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
+    <col min="13" max="14" style="2" width="8.7109375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="16" max="16" style="2" width="8.7109375"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="15.140625"/>
+    <col min="18" max="19" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
+    <col min="21" max="21" style="2" width="8.7109375"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="8.28515625"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="12.7109375"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="23.140625"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="23.42578125"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="11.7109375"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="33" max="33" customWidth="true" style="2" width="20.42578125"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="18.5703125"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="29.42578125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="14.0"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="38" max="40" bestFit="true" customWidth="true" style="2" width="17.85546875"/>
+    <col min="41" max="43" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="45" max="45" customWidth="true" style="2" width="18.42578125"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="47" max="47" customWidth="true" style="2" width="18.0"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="22.42578125"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="17.42578125"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="14.140625"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="2" width="22.7109375"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" style="2" width="30.28515625"/>
+    <col min="55" max="16384" style="2" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.25">
@@ -1069,14 +1084,14 @@
       <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="O2" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="P2" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>134</v>
+      <c r="Q2" t="s" s="2">
+        <v>138</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>102</v>
@@ -1114,8 +1129,8 @@
       <c r="AC2" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="AD2" s="2" t="s">
-        <v>133</v>
+      <c r="AD2" t="s" s="2">
+        <v>137</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
@@ -1135,7 +1150,7 @@
       <c r="AJ2" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AK2" t="s" s="2">
         <v>132</v>
       </c>
       <c r="AR2" s="2" t="s">
@@ -1195,55 +1210,55 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="29.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="38.28515625" style="2" customWidth="1"/>
-    <col min="30" max="30" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.28515625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="29.28515625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="26.42578125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="16.5703125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="23.85546875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.42578125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.140625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.5703125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.28515625"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="29.28515625"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="19.85546875"/>
+    <col min="29" max="29" customWidth="true" style="2" width="38.28515625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.85546875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.5703125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.85546875"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="18.85546875"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.140625"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7109375"/>
+    <col min="53" max="16384" style="2" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.25">
@@ -1453,14 +1468,14 @@
       <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="O2" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="P2" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>134</v>
+      <c r="Q2" t="s" s="2">
+        <v>138</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>102</v>
@@ -1498,8 +1513,8 @@
       <c r="AC2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="AD2" s="2" t="s">
-        <v>133</v>
+      <c r="AD2" t="s" s="2">
+        <v>137</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
@@ -1578,53 +1593,53 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="35.28515625" style="2" customWidth="1"/>
-    <col min="30" max="30" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="24.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.28515625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="32.85546875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.42578125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.140625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.5703125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="8.28515625"/>
+    <col min="23" max="24" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.140625"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="2" width="19.85546875"/>
+    <col min="29" max="29" customWidth="true" style="2" width="35.28515625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.85546875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="18.5703125"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="29.42578125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="15.140625"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.85546875"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="24.5703125"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.140625"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7109375"/>
+    <col min="53" max="16384" style="2" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.25">
@@ -1957,54 +1972,54 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="50.5703125" style="2" customWidth="1"/>
-    <col min="29" max="29" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="42" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.28515625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="32.42578125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="16.42578125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="6.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="9.5703125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="7.42578125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="8.85546875"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="8.140625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="2" width="13.5703125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="2" width="11.0"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="2" width="10.42578125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="2" width="8.5703125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="2" width="22.0"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="2" width="15.7109375"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="2" width="19.42578125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="2" width="23.140625"/>
+    <col min="28" max="28" customWidth="true" style="2" width="50.5703125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="2" width="12.140625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="2" width="13.140625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="2" width="20.42578125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="2" width="24.85546875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="2" width="11.140625"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="2" width="14.5703125"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="2" width="11.85546875"/>
+    <col min="37" max="39" bestFit="true" customWidth="true" style="2" width="15.5703125"/>
+    <col min="40" max="42" bestFit="true" customWidth="true" style="2" width="10.140625"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="2" width="18.42578125"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="2" width="18.0"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" style="2" width="13.85546875"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="47" max="47" bestFit="true" customWidth="true" style="2" width="12.5703125"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="49" max="49" bestFit="true" customWidth="true" style="2" width="14.140625"/>
+    <col min="50" max="50" bestFit="true" customWidth="true" style="2" width="10.85546875"/>
+    <col min="51" max="51" bestFit="true" customWidth="true" style="2" width="12.85546875"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" style="2" width="16.7109375"/>
+    <col min="53" max="16384" style="2" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.25">
@@ -2336,32 +2351,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="30.85546875" customWidth="1"/>
-    <col min="30" max="30" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.0"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.5703125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="32.42578125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.85546875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.85546875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="25.85546875"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="11.140625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.140625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.140625"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="21.7109375"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="13.5703125"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="8.42578125"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="11.85546875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="13.140625"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="24.140625"/>
+    <col min="29" max="29" customWidth="true" width="30.85546875"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="12.85546875"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="10.85546875"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="28.85546875"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="27.140625"/>
+    <col min="48" max="48" bestFit="true" customWidth="true" width="10.85546875"/>
+    <col min="52" max="52" bestFit="true" customWidth="true" width="10.85546875"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" width="27.42578125"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" width="11.28515625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2524,7 +2539,7 @@
       <c r="BA1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BB1" t="s" s="0">
         <v>79</v>
       </c>
     </row>
@@ -2667,8 +2682,8 @@
       <c r="BA2" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="BB2" t="s">
-        <v>135</v>
+      <c r="BB2" t="s" s="0">
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.25">
